--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamholmkvist/Desktop/Master/Code/Python/game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDF904-8D32-A448-A570-B40B61A74A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA68ACD-8550-4E49-880C-9B3A70F46CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
+    <workbookView xWindow="2640" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Asset</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Itch.io</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>SSW_VP2_v1.01_Receipt</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:E4"/>
+  <dimension ref="A3:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -424,40 +430,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamholmkvist/Desktop/Master/Code/Python/game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA68ACD-8550-4E49-880C-9B3A70F46CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E779D4-0F0F-E642-A1BB-A890C8EC83E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Asset</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>SSW_VP2_v1.01_Receipt</t>
+  </si>
+  <si>
+    <t>FantasyPaperMap_NAv1zip</t>
+  </si>
+  <si>
+    <t>FantasyPaperMap_receipt</t>
+  </si>
+  <si>
+    <t>30-01-2023</t>
+  </si>
+  <si>
+    <t>25 USD</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:F4"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,6 +485,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamholmkvist/Desktop/Master/Code/Python/game/happy_ville/Aseprite/Purchased/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olakenjiforslund/Library/CloudStorage/OneDrive-Chalmers/Leisure/Programming/Python/Game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E779D4-0F0F-E642-A1BB-A890C8EC83E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D2979-ADBA-244D-8989-FEFD0DEDE962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
+    <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Asset</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>25 USD</t>
+  </si>
+  <si>
+    <t>JuceFX</t>
+  </si>
+  <si>
+    <t>11/5/2023</t>
+  </si>
+  <si>
+    <t>13.36 USD</t>
+  </si>
+  <si>
+    <t>Ola</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:F5"/>
+  <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -505,6 +517,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olakenjiforslund/Library/CloudStorage/OneDrive-Chalmers/Leisure/Programming/Python/Game/happy_ville/Aseprite/Purchased/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olakenjiforslund/OKF/Leisure/Programming/Python/Game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597D2979-ADBA-244D-8989-FEFD0DEDE962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE33923-8EA3-0B47-840D-D1F16FD52A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Asset</t>
   </si>
@@ -94,19 +94,37 @@
   </si>
   <si>
     <t>Ola</t>
+  </si>
+  <si>
+    <t>139.29 sek</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>Leon M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222325"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,6 +553,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olakenjiforslund/OKF/Leisure/Programming/Python/Game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE33923-8EA3-0B47-840D-D1F16FD52A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6E9E2-A740-A247-ACDB-12F5D13B2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Asset</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Leon M</t>
+  </si>
+  <si>
+    <t>itch.io</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>380 sek</t>
+  </si>
+  <si>
+    <t>adventure pack/Otsoga</t>
   </si>
 </sst>
 </file>
@@ -464,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:F7"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,6 +582,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aseprite/Purchased/Purchases.xlsx
+++ b/Aseprite/Purchased/Purchases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olakenjiforslund/OKF/Leisure/Programming/Python/Game/happy_ville/Aseprite/Purchased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6E9E2-A740-A247-ACDB-12F5D13B2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFD628-1379-2744-84CC-7D0BBCA7116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E176ED19-2E66-2343-B8D1-238E922B64ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Asset</t>
   </si>
@@ -118,13 +118,49 @@
   </si>
   <si>
     <t>adventure pack/Otsoga</t>
+  </si>
+  <si>
+    <t>The DARK Series - Lord of Flames BOSS</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>29.89 sek</t>
+  </si>
+  <si>
+    <t>The DARK Series - The Skeleton Summoner</t>
+  </si>
+  <si>
+    <t>he DARK Series - A Strange Companion</t>
+  </si>
+  <si>
+    <t>The DARK Series - The Colossal Boss</t>
+  </si>
+  <si>
+    <t>The DARK Series - The Bone Reaper Boss</t>
+  </si>
+  <si>
+    <t>41.91 sek</t>
+  </si>
+  <si>
+    <t>23.94 sek</t>
+  </si>
+  <si>
+    <t>The DARK Series - The Tarnished Widow BOSS</t>
+  </si>
+  <si>
+    <t>29.90 sek</t>
+  </si>
+  <si>
+    <t>The DARK Series - The Heart Hoarder BOSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +172,12 @@
       <sz val="12"/>
       <color rgb="FF222325"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -159,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FC7C8-F340-274E-BE2D-D8F153AC488E}">
-  <dimension ref="A3:F8"/>
+  <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,6 +642,125 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
